--- a/calc/files/letter.xlsx
+++ b/calc/files/letter.xlsx
@@ -11,12 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Наименование услуги</t>
   </si>
   <si>
     <t>Тариф, белорусских рублей</t>
+  </si>
+  <si>
+    <t>физ</t>
+  </si>
+  <si>
+    <t>юр</t>
   </si>
   <si>
     <t>Пересылка внутренних простых отправлений письменной корреспонденции:</t>
@@ -41,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,9 +60,25 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="14.0"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF333333"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -73,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -104,11 +126,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -136,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -149,13 +166,23 @@
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
@@ -374,8 +401,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="54.88"/>
+    <col customWidth="1" min="1" max="1" width="60.88"/>
     <col customWidth="1" min="2" max="2" width="28.75"/>
+    <col customWidth="1" min="3" max="3" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.75" customHeight="1">
@@ -386,50 +414,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="29.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="C4" s="9">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C5" s="10">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="C6" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="C7" s="10">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10">
         <v>0.06</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/calc/files/letter.xlsx
+++ b/calc/files/letter.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
     <t>Наименование услуги</t>
   </si>
@@ -46,38 +45,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+  <numFmts>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1001"/>
+  </numFmts>
+  <fonts count="7">
+    <font>
+      <name val="Calibri"/>
+      <color rgb="000000" tint="0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <color rgb="000000" tint="0"/>
+      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Arial"/>
+      <color theme="1" tint="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Roboto"/>
+      <color rgb="333333" tint="0"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <color theme="1" tint="0"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF333333"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF333333"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color rgb="333333" tint="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <color theme="1" tint="0"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,119 +92,126 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </right>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </right>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </bottom>
     </border>
     <border>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </right>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="000000" tint="0"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="12">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="3" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+      <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -241,13 +254,13 @@
     <a:fontScheme name="Sheets">
       <a:majorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -255,7 +268,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -279,9 +292,8 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -305,44 +317,52 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw>
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw>
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw>
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -358,7 +378,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -383,7 +403,6 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -392,21 +411,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="true" defaultColWidth="12.4597862382296" defaultRowHeight="15.75" zeroHeight="false"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="60.88"/>
-    <col customWidth="1" min="2" max="2" width="28.75"/>
-    <col customWidth="1" min="3" max="3" width="21.13"/>
+    <col customWidth="true" max="1" min="1" outlineLevel="0" width="60.0595214593222"/>
+    <col customWidth="true" max="2" min="2" outlineLevel="0" width="28.3625373370909"/>
+    <col customWidth="true" max="3" min="3" outlineLevel="0" width="20.8452320596304"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.75" customHeight="1">
+    <row customHeight="true" ht="57.75" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +434,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="29.25" customHeight="1">
-      <c r="A2" s="3"/>
+    <row customHeight="true" ht="29.25" outlineLevel="0" r="2">
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -423,69 +443,73 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row outlineLevel="0" r="3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4">
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="7" t="n"/>
+    </row>
+    <row outlineLevel="0" r="4">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="9" t="n">
         <v>0.7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="9" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="D4" s="10" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*0.2</f>
+        <v>0.11599999999999999</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" s="10" t="n"/>
+    </row>
+    <row outlineLevel="0" r="6">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11" t="n">
         <v>0.06</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7">
+    <row outlineLevel="0" r="7">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="11" t="n">
         <v>0.7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11" t="n">
         <v>0.58</v>
       </c>
     </row>
-    <row r="8">
+    <row outlineLevel="0" r="8">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11" t="n">
         <v>0.06</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11" t="n">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/calc/files/letter.xlsx
+++ b/calc/files/letter.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <sheets>
     <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
   </sheets>
   <definedNames/>
+  <calcPr calcCompleted="true" calcMode="auto" calcOnSave="false" fullCalcOnLoad="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <si>
     <t>Наименование услуги</t>
   </si>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
     <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1001"/>
@@ -211,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -411,7 +412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>

--- a/calc/files/letter.xlsx
+++ b/calc/files/letter.xlsx
@@ -42,19 +42,23 @@
   <si>
     <t>за каждые последующие полные или неполные 20 г массы бандероли</t>
   </si>
+  <si>
+    <t>Постановление МАРТ 18.06.2025 № 43</t>
+  </si>
+  <si/>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <numFmts>
+    <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1001"/>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
-    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1001"/>
+    <numFmt co:extendedFormatCode="0.00" formatCode="0.00" numFmtId="1002"/>
   </numFmts>
   <fonts count="7">
     <font>
       <name val="Calibri"/>
-      <color rgb="000000" tint="0"/>
       <sz val="11"/>
     </font>
     <font>
@@ -101,7 +105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -135,6 +139,17 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000" tint="0"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="000000" tint="0"/>
       </left>
@@ -163,43 +178,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+  <cellXfs count="14">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="4" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="5" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
+    <xf applyBorder="true" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="2" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="2" fontId="2" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1002" quotePrefix="false">
       <alignment shrinkToFit="false" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="2" fontId="2" numFmtId="1001" quotePrefix="false">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="2" fontId="2" numFmtId="1002" quotePrefix="false">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -416,7 +437,7 @@
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -434,83 +455,97 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s"/>
     </row>
     <row customHeight="true" ht="29.25" outlineLevel="0" r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="3" t="s">
+    <row customHeight="true" ht="41.9999847412109" outlineLevel="0" r="3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="7" t="n"/>
+      <c r="B3" s="8" t="n"/>
+      <c r="C3" s="9" t="n"/>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D4" s="10" t="n">
+      <c r="B4" s="11" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D4" s="12" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*0.2</f>
-        <v>0.11599999999999999</v>
+        <v>0.144</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="D5" s="10" t="n"/>
+      <c r="B5" s="13" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D5" s="12" t="n"/>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="13" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>0.06</v>
       </c>
-      <c r="C6" s="11" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C7" s="11" t="n">
-        <v>0.58</v>
+      <c r="B7" s="13" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="13" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>0.06</v>
       </c>
-      <c r="C8" s="11" t="n">
-        <v>0.05</v>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="B18" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
 </worksheet>
 </file>